--- a/ChartRadar_V12_AI.xlsx
+++ b/ChartRadar_V12_AI.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="24.2" customWidth="1" min="1" max="1"/>
     <col width="15.4" customWidth="1" min="2" max="2"/>
     <col width="13.2" customWidth="1" min="3" max="3"/>
     <col width="8.800000000000001" customWidth="1" min="4" max="4"/>
@@ -488,20 +488,20 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>LG이노텍</t>
+          <t>제일기획</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>279000</v>
+        <v>20800</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>100.04</v>
+        <v>100.02</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>54.6</v>
+        <v>49.1</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>48.3</v>
+        <v>51.8</v>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
@@ -510,27 +510,27 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>011070</t>
+          <t>030000</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>케이씨</t>
+          <t>대아티아이</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>28150</v>
+        <v>4280</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>100.04</v>
+        <v>100.05</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>72.59999999999999</v>
+        <v>46.2</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>32.6</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
@@ -539,27 +539,27 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>029460</t>
+          <t>045390</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>종근당</t>
+          <t>코리안리</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>83000</v>
+        <v>11030</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>100.06</v>
+        <v>100.07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>50.5</v>
+        <v>39.3</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>59.7</v>
+        <v>51.7</v>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
@@ -568,27 +568,27 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>185750</t>
+          <t>003690</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>SK디스커버리</t>
+          <t>HD현대일렉트릭</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>61600</v>
+        <v>896000</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>100.11</v>
+        <v>100.08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>60.9</v>
+        <v>62.5</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>46.4</v>
+        <v>47.4</v>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
@@ -597,27 +597,27 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>006120</t>
+          <t>267260</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>산일전기</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>141800</v>
+        <v>58200</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>100.11</v>
+        <v>100.1</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>66.7</v>
+        <v>38.5</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>43.6</v>
+        <v>55.2</v>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
@@ -626,27 +626,27 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>062040</t>
+          <t>035720</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>SK바이오사이언스</t>
+          <t>농심</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>48550</v>
+        <v>412500</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>100.13</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>51.7</v>
+        <v>36.4</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>56.6</v>
+        <v>16.7</v>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
@@ -655,27 +655,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>302440</t>
+          <t>004370</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>부광약품</t>
+          <t>원익IPS</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>3795</v>
+        <v>76300</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>100.18</v>
+        <v>100.13</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>50.5</v>
+        <v>41.5</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>55.7</v>
+        <v>52.9</v>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
@@ -684,27 +684,27 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>003000</t>
+          <t>240810</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>HD현대일렉트릭</t>
+          <t>종근당</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>894000</v>
+        <v>83200</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>100.24</v>
+        <v>100.27</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>67.09999999999999</v>
+        <v>52.1</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>48.9</v>
+        <v>61.9</v>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
@@ -713,27 +713,27 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>267260</t>
+          <t>185750</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>태광</t>
+          <t>산일전기</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>26150</v>
+        <v>142700</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>100.25</v>
+        <v>100.27</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>71.5</v>
+        <v>58.7</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>30.5</v>
+        <v>60.6</v>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>023160</t>
+          <t>062040</t>
         </is>
       </c>
     </row>
@@ -753,16 +753,16 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>3190</v>
+        <v>3200</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>100.41</v>
+        <v>100.34</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>46</v>
+        <v>46.9</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>46.8</v>
+        <v>59.9</v>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
@@ -778,20 +778,20 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>클래시스</t>
+          <t>동진쎄미켐</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>58400</v>
+        <v>40250</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>100.43</v>
+        <v>100.35</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>60.5</v>
+        <v>55.1</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>44.6</v>
+        <v>38.2</v>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
@@ -800,27 +800,27 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>214150</t>
+          <t>005290</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>코오롱인더</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44100</v>
+        <v>292500</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>100.43</v>
+        <v>100.36</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>47.8</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>59.5</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>120110</t>
+          <t>034730</t>
         </is>
       </c>
     </row>
@@ -840,16 +840,16 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>29750</v>
+        <v>30000</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>100.61</v>
+        <v>100.65</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>72.2</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>41.4</v>
+        <v>66</v>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
@@ -865,20 +865,20 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>유안타증권</t>
+          <t>드림텍</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>3855</v>
+        <v>7140</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>100.67</v>
+        <v>100.69</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>58.6</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>56.2</v>
+        <v>50.7</v>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
@@ -887,27 +887,27 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>003470</t>
+          <t>192650</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>리노공업</t>
+          <t>YG PLUS</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>64700</v>
+        <v>7000</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>100.67</v>
+        <v>100.85</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>64.90000000000001</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>37.8</v>
+        <v>49.9</v>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
@@ -916,27 +916,27 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>058470</t>
+          <t>037270</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>카카오페이</t>
+          <t>네오셈</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>50100</v>
+        <v>11230</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>100.72</v>
+        <v>100.96</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>52.3</v>
+        <v>50.7</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>25.4</v>
+        <v>38.2</v>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
@@ -945,27 +945,27 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>377300</t>
+          <t>253590</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>STX엔진</t>
+          <t>카카오페이</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>38000</v>
+        <v>50500</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>100.77</v>
+        <v>101.03</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>62.4</v>
+        <v>49.3</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>41.9</v>
+        <v>44.3</v>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
@@ -974,27 +974,27 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>077970</t>
+          <t>377300</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>동진쎄미켐</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>40500</v>
+        <v>323000</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>100.81</v>
+        <v>101.06</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>72.3</v>
+        <v>60.5</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>36</v>
+        <v>45.2</v>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
@@ -1003,27 +1003,27 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>005290</t>
+          <t>039490</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>예스티</t>
+          <t>SK바이오사이언스</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>18240</v>
+        <v>49200</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>100.86</v>
+        <v>101.13</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>53.7</v>
+        <v>55.7</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>28.4</v>
+        <v>60.6</v>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
@@ -1032,27 +1032,27 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>122640</t>
+          <t>302440</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>CJ대한통운</t>
+          <t>한화에어로스페이스</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>98000</v>
+        <v>1297000</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>100.87</v>
+        <v>101.16</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>60.9</v>
+        <v>86.3</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>25.1</v>
+        <v>62.8</v>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
@@ -1061,27 +1061,27 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>000120</t>
+          <t>012450</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>한미사이언스</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>293000</v>
+        <v>38450</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>100.98</v>
+        <v>101.3</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>72.40000000000001</v>
+        <v>57.8</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>48.4</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
@@ -1090,27 +1090,27 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>034730</t>
+          <t>008930</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>제일기획</t>
+          <t>LG이노텍</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>20950</v>
+        <v>282500</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>100.99</v>
+        <v>101.31</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>49.1</v>
+        <v>58.6</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>67.90000000000001</v>
+        <v>32</v>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
@@ -1119,27 +1119,27 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>030000</t>
+          <t>011070</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>두산테스나</t>
+          <t>리노공업</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>51600</v>
+        <v>65200</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>101.04</v>
+        <v>101.31</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44.6</v>
+        <v>51.4</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>43</v>
+        <v>63.7</v>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
@@ -1148,27 +1148,27 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>131970</t>
+          <t>058470</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>현대백화점</t>
+          <t>한화시스템</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>94200</v>
+        <v>89000</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>101.04</v>
+        <v>101.37</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>58.9</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>35.8</v>
+        <v>32.6</v>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
@@ -1177,27 +1177,27 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>069960</t>
+          <t>272210</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>드림텍</t>
+          <t>예스티</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>7150</v>
+        <v>18210</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>101.1</v>
+        <v>101.46</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>52.9</v>
+        <v>46.7</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>43.5</v>
+        <v>51.3</v>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
@@ -1206,27 +1206,27 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>192650</t>
+          <t>122640</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>하나머티리얼즈</t>
+          <t>케어젠</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>51300</v>
+        <v>74000</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>101.18</v>
+        <v>101.48</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>64.40000000000001</v>
+        <v>50.4</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>36.4</v>
+        <v>31.7</v>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
@@ -1235,27 +1235,27 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>166090</t>
+          <t>214370</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>에이팩트</t>
+          <t>삼성화재우</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>8080</v>
+        <v>370500</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>101.23</v>
+        <v>101.48</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>63</v>
+        <v>42.9</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>57</v>
+        <v>35.9</v>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
@@ -1264,27 +1264,27 @@
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>200470</t>
+          <t>000815</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>신성이엔지</t>
+          <t>아이티센글로벌</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1614</v>
+        <v>34050</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>101.28</v>
+        <v>101.51</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>52.3</v>
+        <v>57.1</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>22.2</v>
+        <v>49</v>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
@@ -1293,27 +1293,27 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>011930</t>
+          <t>124500</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>천일고속</t>
+          <t>삼성중공업</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>293500</v>
+        <v>30200</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>101.29</v>
+        <v>101.53</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>39.2</v>
+        <v>74.5</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>61.9</v>
+        <v>47.4</v>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
@@ -1322,27 +1322,27 @@
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>000650</t>
+          <t>010140</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>원익IPS</t>
+          <t>한양이엔지</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>77200</v>
+        <v>24050</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>101.33</v>
+        <v>101.58</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>64.09999999999999</v>
+        <v>56.3</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>29.9</v>
+        <v>43</v>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
@@ -1351,27 +1351,27 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>240810</t>
+          <t>045100</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>솔브레인홀딩스</t>
+          <t>두산에너빌리티</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>38500</v>
+        <v>92300</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>101.37</v>
+        <v>101.65</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>57.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>50.8</v>
+        <v>47.9</v>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
@@ -1380,27 +1380,27 @@
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>036830</t>
+          <t>034020</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>코리안리</t>
+          <t>한샘</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>11220</v>
+        <v>44600</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>101.47</v>
+        <v>101.7</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>42.6</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>62.1</v>
+        <v>52</v>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
@@ -1409,27 +1409,27 @@
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>003690</t>
+          <t>009240</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>두산에너빌리티</t>
+          <t>신영증권</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>91300</v>
+        <v>146600</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>101.51</v>
+        <v>101.7</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>75.59999999999999</v>
+        <v>61</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>54.6</v>
+        <v>49.4</v>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
@@ -1438,27 +1438,27 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>034020</t>
+          <t>001720</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>삼성증권</t>
+          <t>CJ</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>81600</v>
+        <v>188400</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>101.54</v>
+        <v>101.71</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>69.59999999999999</v>
+        <v>69.8</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>52.7</v>
+        <v>46.6</v>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
@@ -1467,27 +1467,27 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>016360</t>
+          <t>001040</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>LS에코에너지</t>
+          <t>현대오토에버</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>37250</v>
+        <v>491000</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>101.57</v>
+        <v>101.77</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>65.2</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>49.2</v>
+        <v>54.3</v>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
@@ -1496,27 +1496,27 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>229640</t>
+          <t>307950</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>엠씨넥스</t>
+          <t>OCI홀딩스</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>30950</v>
+        <v>113900</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>101.58</v>
+        <v>101.78</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>64</v>
+        <v>62.2</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>50.2</v>
+        <v>49.6</v>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
@@ -1525,27 +1525,27 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>097520</t>
+          <t>010060</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>대신증권우</t>
+          <t>LS</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>21450</v>
+        <v>220750</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>101.59</v>
+        <v>101.83</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>61</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>32.6</v>
+        <v>69</v>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
@@ -1554,27 +1554,27 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>003545</t>
+          <t>006260</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>한국금융지주우</t>
+          <t>LS ELECTRIC</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>135400</v>
+        <v>525000</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>101.64</v>
+        <v>101.83</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>63.9</v>
+        <v>58.5</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>47</v>
+        <v>49.4</v>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
@@ -1583,27 +1583,27 @@
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>071055</t>
+          <t>010120</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>인텔리안테크</t>
+          <t>한국금융지주우</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>72500</v>
+        <v>136600</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>101.65</v>
+        <v>101.89</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>69.7</v>
+        <v>61.7</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>61.9</v>
+        <v>60.4</v>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
@@ -1612,27 +1612,27 @@
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>189300</t>
+          <t>071055</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>한화엔진</t>
+          <t>원익QnC</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>53600</v>
+        <v>23900</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>101.79</v>
+        <v>101.94</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>75.7</v>
+        <v>57.1</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>53</v>
+        <v>33.4</v>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
@@ -1641,27 +1641,27 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>082740</t>
+          <t>074600</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>서울가스</t>
+          <t>LG디스플레이</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>62400</v>
+        <v>12480</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>101.83</v>
+        <v>102.04</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>47.4</v>
+        <v>60.8</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>54.3</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
@@ -1670,27 +1670,27 @@
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>017390</t>
+          <t>034220</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>현대제철</t>
+          <t>KH바텍</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>31400</v>
+        <v>14230</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>101.85</v>
+        <v>102.12</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>52.1</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>26.5</v>
+        <v>57.3</v>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
@@ -1699,27 +1699,27 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>004020</t>
+          <t>060720</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>현대지에프홀딩스</t>
+          <t>SK증권</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>8420</v>
+        <v>689</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>101.86</v>
+        <v>102.15</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>52.2</v>
+        <v>61.7</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>47.5</v>
+        <v>31.9</v>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
@@ -1728,27 +1728,27 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>005440</t>
+          <t>001510</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>삼천리</t>
+          <t>지엔씨에너지</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>124500</v>
+        <v>34800</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>101.86</v>
+        <v>102.16</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>40.5</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>30.3</v>
+        <v>36.7</v>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
@@ -1757,27 +1757,27 @@
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>004690</t>
+          <t>119850</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>CJ4우(전환)</t>
+          <t>명신산업</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>161500</v>
+        <v>9440</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>101.92</v>
+        <v>102.24</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>65.7</v>
+        <v>58.9</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>52.8</v>
+        <v>56.2</v>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
@@ -1786,27 +1786,27 @@
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>00104K</t>
+          <t>009900</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>두산</t>
+          <t>KCC</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>825000</v>
+        <v>440500</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>101.97</v>
+        <v>102.25</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>57.4</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>53.7</v>
+        <v>42.3</v>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
@@ -1815,27 +1815,27 @@
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>000150</t>
+          <t>002380</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>한샘</t>
+          <t>삼성화재</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44600</v>
+        <v>495000</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>102</v>
+        <v>102.27</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>40.8</v>
+        <v>49</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>35.8</v>
+        <v>63.3</v>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>009240</t>
+          <t>000810</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>이녹스첨단소재</t>
+          <t>한화갤러리아</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>25000</v>
+        <v>1796</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>102.02</v>
+        <v>102.27</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>61.4</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>48.3</v>
+        <v>16.2</v>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
@@ -1873,27 +1873,27 @@
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>272290</t>
+          <t>452260</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>삼성화재우</t>
+          <t>SNT모티브</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>372000</v>
+        <v>37700</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>102.04</v>
+        <v>102.29</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44.7</v>
+        <v>61</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45</v>
+        <v>62.4</v>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
@@ -1902,27 +1902,27 @@
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>000815</t>
+          <t>064960</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>삼표시멘트</t>
+          <t>영원무역홀딩스</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>5030</v>
+        <v>193300</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>102.05</v>
+        <v>102.3</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>50.7</v>
+        <v>62.3</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>43.1</v>
+        <v>52.1</v>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
@@ -1931,27 +1931,27 @@
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>038500</t>
+          <t>009970</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>대한전선</t>
+          <t>신성이엔지</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>26900</v>
+        <v>1642</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>102.05</v>
+        <v>102.5</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>71.5</v>
+        <v>51.9</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>22.3</v>
+        <v>33.5</v>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
@@ -1960,27 +1960,27 @@
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>001440</t>
+          <t>011930</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>에프에스티</t>
+          <t>BNK금융지주</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>31400</v>
+        <v>15590</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>102.26</v>
+        <v>102.53</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>54.1</v>
+        <v>47</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>46.4</v>
+        <v>28.8</v>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
@@ -1989,27 +1989,27 @@
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>036810</t>
+          <t>138930</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>PS일렉트로닉스</t>
+          <t>클래시스</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>8040</v>
+        <v>60100</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>102.3</v>
+        <v>102.63</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>64.5</v>
+        <v>54.7</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>47</v>
+        <v>73.3</v>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
@@ -2018,27 +2018,27 @@
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>332570</t>
+          <t>214150</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>지엔씨에너지</t>
+          <t>현대위아</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>34500</v>
+        <v>92400</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>102.31</v>
+        <v>102.66</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>65</v>
+        <v>63.9</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>65.7</v>
+        <v>42.8</v>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
@@ -2047,27 +2047,27 @@
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>119850</t>
+          <t>011210</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>코미코</t>
+          <t>LX인터내셔널</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>98400</v>
+        <v>35850</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>102.33</v>
+        <v>102.66</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>62.8</v>
+        <v>69.2</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>73.2</v>
+        <v>61.9</v>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
@@ -2076,27 +2076,27 @@
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>183300</t>
+          <t>001120</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>현대차증권</t>
+          <t>한화손해보험</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>8390</v>
+        <v>5650</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>102.39</v>
+        <v>102.73</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>66</v>
+        <v>55.6</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>36.2</v>
+        <v>76.7</v>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
@@ -2105,27 +2105,27 @@
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>001500</t>
+          <t>000370</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>제우스</t>
+          <t>한화3우B</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>15130</v>
+        <v>49550</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>102.47</v>
+        <v>102.73</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>53.4</v>
+        <v>74.2</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>45.7</v>
+        <v>44.8</v>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
@@ -2134,27 +2134,27 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>079370</t>
+          <t>00088K</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>한미사이언스</t>
+          <t>코미코</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>38750</v>
+        <v>99000</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>102.49</v>
+        <v>102.75</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>60</v>
+        <v>56.3</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>41.3</v>
+        <v>42.6</v>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
@@ -2163,27 +2163,27 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>008930</t>
+          <t>183300</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>대한해운</t>
+          <t>KT</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1855</v>
+        <v>55100</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>102.55</v>
+        <v>102.8</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>63.4</v>
+        <v>73.8</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>49.4</v>
+        <v>72.5</v>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
@@ -2192,27 +2192,27 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>005880</t>
+          <t>030200</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>현대오토에버</t>
+          <t>코오롱티슈진</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>485000</v>
+        <v>75700</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>102.57</v>
+        <v>102.85</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>74.8</v>
+        <v>59.8</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>47.1</v>
+        <v>55.6</v>
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
@@ -2221,27 +2221,27 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>307950</t>
+          <t>950160</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>BNK금융지주</t>
+          <t>삼성증권</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>15570</v>
+        <v>83400</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>102.58</v>
+        <v>102.92</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>43.8</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>37.2</v>
+        <v>61.3</v>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
@@ -2250,28 +2250,28 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>138930</t>
+          <t>016360</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>케어젠</t>
+          <t>한화비전</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>74500</v>
+        <v>53600</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>102.65</v>
+        <v>102.94</v>
       </c>
       <c r="D63" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="E63" s="2" t="n">
         <v>54.5</v>
       </c>
-      <c r="E63" s="2" t="n">
-        <v>34.5</v>
-      </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
           <t>주식</t>
@@ -2279,27 +2279,27 @@
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>214370</t>
+          <t>489790</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>KCC</t>
+          <t>제룡전기</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>438500</v>
+        <v>39950</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>102.68</v>
+        <v>102.99</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>57.7</v>
+        <v>68.7</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>48.4</v>
+        <v>51.5</v>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
@@ -2308,27 +2308,27 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>002380</t>
+          <t>033100</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>에스에이엠티</t>
+          <t>LS에코에너지</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>4165</v>
+        <v>38100</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>102.92</v>
+        <v>103.01</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>50.5</v>
+        <v>63.7</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>51.9</v>
+        <v>22.6</v>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
@@ -2337,27 +2337,27 @@
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>031330</t>
+          <t>229640</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>DL이앤씨</t>
+          <t>LG전자우</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>43400</v>
+        <v>51700</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>102.93</v>
+        <v>103.09</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>59.1</v>
+        <v>59</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>53.1</v>
+        <v>43.8</v>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
@@ -2366,27 +2366,27 @@
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>375500</t>
+          <t>066575</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>한국가스공사</t>
+          <t>레인보우로보틱스</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>40250</v>
+        <v>502000</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>102.93</v>
+        <v>103.11</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>56.9</v>
+        <v>52</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>42.3</v>
+        <v>27.8</v>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
@@ -2395,27 +2395,27 @@
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>036460</t>
+          <t>277810</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>부국증권</t>
+          <t>대한해운</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>61500</v>
+        <v>1882</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>102.93</v>
+        <v>103.15</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>63</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>43.7</v>
+        <v>66</v>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
@@ -2424,27 +2424,27 @@
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>001270</t>
+          <t>005880</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>SK증권</t>
+          <t>솔브레인홀딩스</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>690</v>
+        <v>39350</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>102.95</v>
+        <v>103.27</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>62.2</v>
+        <v>57.7</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>40.5</v>
+        <v>27.4</v>
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
@@ -2453,27 +2453,27 @@
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>001510</t>
+          <t>036830</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>맵스리얼티</t>
+          <t>HD현대</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>5350</v>
+        <v>245500</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>102.96</v>
+        <v>103.28</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>72.40000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>20.7</v>
+        <v>58.5</v>
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
@@ -2482,27 +2482,27 @@
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>094800</t>
+          <t>267250</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>CJ</t>
+          <t>CJ대한통운</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>189300</v>
+        <v>101100</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>102.98</v>
+        <v>103.3</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>72.5</v>
+        <v>66.7</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>31.3</v>
+        <v>27.8</v>
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
@@ -2511,27 +2511,27 @@
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>001040</t>
+          <t>000120</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>고영</t>
+          <t>코오롱인더</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>29050</v>
+        <v>45850</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>103.03</v>
+        <v>103.31</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>68.90000000000001</v>
+        <v>60.1</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>60.8</v>
+        <v>43.6</v>
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
@@ -2540,27 +2540,27 @@
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>098460</t>
+          <t>120110</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>쏠리드</t>
+          <t>프로텍</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>7550</v>
+        <v>37250</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>103.13</v>
+        <v>103.44</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>55.2</v>
+        <v>54.1</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>55</v>
+        <v>54.9</v>
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
@@ -2569,27 +2569,27 @@
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>050890</t>
+          <t>053610</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>OCI홀딩스</t>
+          <t>삼양식품</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>114200</v>
+        <v>1245000</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>103.16</v>
+        <v>103.47</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>48.9</v>
+        <v>45</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>51.8</v>
+        <v>37.7</v>
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
@@ -2598,27 +2598,27 @@
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>010060</t>
+          <t>003230</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>LS</t>
+          <t>제이에스링크</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>222000</v>
+        <v>19770</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>103.35</v>
+        <v>103.51</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>67.5</v>
+        <v>60.9</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>30.9</v>
+        <v>34.5</v>
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
@@ -2627,27 +2627,27 @@
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>006260</t>
+          <t>127120</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>삼성화재</t>
+          <t>두산테스나</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>498500</v>
+        <v>53000</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>50.8</v>
+        <v>46.4</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>41.5</v>
+        <v>34.7</v>
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
@@ -2656,27 +2656,27 @@
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>000810</t>
+          <t>131970</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>피엔티</t>
+          <t>제우스</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>39100</v>
+        <v>15360</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>103.56</v>
+        <v>103.63</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>56.4</v>
+        <v>52.6</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>37.7</v>
+        <v>48.1</v>
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
@@ -2685,27 +2685,27 @@
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>137400</t>
+          <t>079370</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>한화손해보험</t>
+          <t>두산우</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>5660</v>
+        <v>527000</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>103.59</v>
+        <v>103.64</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>53.6</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>39.2</v>
+        <v>59.4</v>
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
@@ -2714,27 +2714,27 @@
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>000370</t>
+          <t>000155</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>DN오토모티브</t>
+          <t>인텔리안테크</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>25100</v>
+        <v>74200</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>103.72</v>
+        <v>103.73</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>55.8</v>
+        <v>61.5</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>51.3</v>
+        <v>58.3</v>
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
@@ -2743,27 +2743,27 @@
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>007340</t>
+          <t>189300</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>현대글로비스</t>
+          <t>고영</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>262000</v>
+        <v>29550</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>103.74</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>80.8</v>
+        <v>59.6</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>37.7</v>
+        <v>44</v>
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
@@ -2772,27 +2772,27 @@
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>086280</t>
+          <t>098460</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>롯데에너지머티리얼즈</t>
+          <t>한국가스공사</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>33450</v>
+        <v>40900</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>103.79</v>
+        <v>103.85</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>64.09999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>67.8</v>
+        <v>43</v>
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
@@ -2801,27 +2801,27 @@
       </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>020150</t>
+          <t>036460</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>KT</t>
+          <t>대한항공</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>55300</v>
+        <v>24300</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>103.87</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>64.8</v>
+        <v>71</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>61.6</v>
+        <v>69</v>
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
@@ -2830,27 +2830,27 @@
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>030200</t>
+          <t>003490</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>삼성전자우</t>
+          <t>대덕전자</t>
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>110400</v>
+        <v>49650</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>103.95</v>
+        <v>103.87</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>82.09999999999999</v>
+        <v>54.6</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>51.8</v>
+        <v>59.9</v>
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
@@ -2859,27 +2859,27 @@
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>005935</t>
+          <t>353200</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>이노스페이스</t>
+          <t>티씨케이</t>
         </is>
       </c>
       <c r="B84" s="2" t="n">
-        <v>23200</v>
+        <v>171400</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>103.95</v>
+        <v>103.91</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>77.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>58.4</v>
+        <v>31.4</v>
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
@@ -2888,27 +2888,27 @@
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>462350</t>
+          <t>064760</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>대한항공</t>
+          <t>아모레퍼시픽우</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>24050</v>
+        <v>46400</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>103.98</v>
+        <v>104.16</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>64.7</v>
+        <v>56.1</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>51.6</v>
+        <v>60.2</v>
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
@@ -2917,27 +2917,27 @@
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>003490</t>
+          <t>090435</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>티씨케이</t>
+          <t>DN오토모티브</t>
         </is>
       </c>
       <c r="B86" s="2" t="n">
-        <v>170300</v>
+        <v>25400</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>103.99</v>
+        <v>104.16</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>67.8</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>53.6</v>
+        <v>47</v>
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
@@ -2946,27 +2946,27 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>064760</t>
+          <t>007340</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>한진칼</t>
+          <t>이엔에프테크놀로지</t>
         </is>
       </c>
       <c r="B87" s="2" t="n">
-        <v>127500</v>
+        <v>48600</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>103.99</v>
+        <v>104.18</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>55.6</v>
+        <v>46.7</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>40</v>
+        <v>54.2</v>
       </c>
       <c r="F87" s="2" t="inlineStr">
         <is>
@@ -2975,27 +2975,27 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>180640</t>
+          <t>102710</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>스피어</t>
+          <t>하나머티리얼즈</t>
         </is>
       </c>
       <c r="B88" s="2" t="n">
-        <v>18970</v>
+        <v>53350</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>104.04</v>
+        <v>104.31</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>67.3</v>
+        <v>64.2</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>37.6</v>
+        <v>44.2</v>
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
@@ -3004,27 +3004,27 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>347700</t>
+          <t>166090</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>삼성중공업</t>
+          <t>케이프</t>
         </is>
       </c>
       <c r="B89" s="2" t="n">
-        <v>30550</v>
+        <v>11890</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>104.05</v>
+        <v>104.39</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>76.8</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>46.7</v>
+        <v>38.7</v>
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
@@ -3033,27 +3033,27 @@
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>010140</t>
+          <t>064820</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>SK네트웍스</t>
+          <t>현대바이오</t>
         </is>
       </c>
       <c r="B90" s="2" t="n">
-        <v>4600</v>
+        <v>5700</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>104.11</v>
+        <v>104.45</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>56.2</v>
+        <v>62.8</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>47.7</v>
+        <v>55</v>
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
@@ -3062,27 +3062,27 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>001740</t>
+          <t>048410</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>한진칼</t>
         </is>
       </c>
       <c r="B91" s="2" t="n">
-        <v>87900</v>
+        <v>129700</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>104.12</v>
+        <v>104.5</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>69.59999999999999</v>
+        <v>64.2</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>33.4</v>
+        <v>54</v>
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
@@ -3091,27 +3091,27 @@
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>003550</t>
+          <t>180640</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>LX인터내셔널</t>
+          <t>한국항공우주</t>
         </is>
       </c>
       <c r="B92" s="2" t="n">
-        <v>35950</v>
+        <v>167400</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>104.13</v>
+        <v>104.58</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>66.5</v>
+        <v>81.3</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>45</v>
+        <v>64.7</v>
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
@@ -3120,27 +3120,27 @@
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>001120</t>
+          <t>047810</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>한국항공우주</t>
+          <t>이녹스첨단소재</t>
         </is>
       </c>
       <c r="B93" s="2" t="n">
-        <v>164200</v>
+        <v>26050</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>104.18</v>
+        <v>104.58</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>81.09999999999999</v>
+        <v>62</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>60.4</v>
+        <v>63.8</v>
       </c>
       <c r="F93" s="2" t="inlineStr">
         <is>
@@ -3149,27 +3149,27 @@
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>047810</t>
+          <t>272290</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>S-Oil</t>
+          <t>현대모비스</t>
         </is>
       </c>
       <c r="B94" s="2" t="n">
-        <v>91900</v>
+        <v>464000</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>104.23</v>
+        <v>104.6</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>65.7</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>44.1</v>
+        <v>79.5</v>
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
@@ -3178,27 +3178,27 @@
       </c>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>010950</t>
+          <t>012330</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>한화에어로스페이스</t>
+          <t>스피어</t>
         </is>
       </c>
       <c r="B95" s="2" t="n">
-        <v>1315000</v>
+        <v>19200</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>104.25</v>
+        <v>104.62</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>89.8</v>
+        <v>50.7</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>43.2</v>
+        <v>50</v>
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
@@ -3207,27 +3207,27 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>012450</t>
+          <t>347700</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>원익머트리얼즈</t>
+          <t>롯데지주</t>
         </is>
       </c>
       <c r="B96" s="2" t="n">
-        <v>34500</v>
+        <v>28800</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>104.28</v>
+        <v>104.63</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>67</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>31</v>
+        <v>37.9</v>
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
@@ -3236,27 +3236,27 @@
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>104830</t>
+          <t>004990</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>원익QnC</t>
+          <t>OCI</t>
         </is>
       </c>
       <c r="B97" s="2" t="n">
-        <v>24250</v>
+        <v>71100</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>104.3</v>
+        <v>104.76</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>66.09999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>40.6</v>
+        <v>34.5</v>
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
@@ -3265,27 +3265,27 @@
       </c>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>074600</t>
+          <t>456040</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>명신산업</t>
+          <t>POSCO홀딩스</t>
         </is>
       </c>
       <c r="B98" s="2" t="n">
-        <v>9520</v>
+        <v>357000</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>104.36</v>
+        <v>104.78</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>62.6</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>40.2</v>
+        <v>38.3</v>
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
@@ -3294,27 +3294,27 @@
       </c>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>009900</t>
+          <t>005490</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>삼화콘덴서</t>
+          <t>케이엠더블유</t>
         </is>
       </c>
       <c r="B99" s="2" t="n">
-        <v>30400</v>
+        <v>15550</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>104.38</v>
+        <v>104.78</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>59.3</v>
+        <v>46.2</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>20.4</v>
+        <v>58.4</v>
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
@@ -3323,27 +3323,27 @@
       </c>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>001820</t>
+          <t>032500</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>제룡전기</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="B100" s="2" t="n">
-        <v>40150</v>
+        <v>89300</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>104.43</v>
+        <v>104.8</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>75.59999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>34</v>
+        <v>65.5</v>
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
@@ -3352,27 +3352,27 @@
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>033100</t>
+          <t>003550</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>HS효성첨단소재</t>
         </is>
       </c>
       <c r="B101" s="2" t="n">
-        <v>149500</v>
+        <v>210000</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>104.45</v>
+        <v>104.96</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>82.90000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>41</v>
+        <v>53.1</v>
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
@@ -3381,210 +3381,7 @@
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>005930</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="inlineStr">
-        <is>
-          <t>한화시스템</t>
-        </is>
-      </c>
-      <c r="B102" s="2" t="n">
-        <v>88800</v>
-      </c>
-      <c r="C102" s="2" t="n">
-        <v>104.56</v>
-      </c>
-      <c r="D102" s="2" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="E102" s="2" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="F102" s="2" t="inlineStr">
-        <is>
-          <t>주식</t>
-        </is>
-      </c>
-      <c r="G102" s="2" t="inlineStr">
-        <is>
-          <t>272210</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="inlineStr">
-        <is>
-          <t>KH바텍</t>
-        </is>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>14210</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>104.56</v>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="E103" s="2" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="F103" s="2" t="inlineStr">
-        <is>
-          <t>주식</t>
-        </is>
-      </c>
-      <c r="G103" s="2" t="inlineStr">
-        <is>
-          <t>060720</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="inlineStr">
-        <is>
-          <t>케이엠더블유</t>
-        </is>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>15460</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>104.69</v>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>61.3</v>
-      </c>
-      <c r="E104" s="2" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>주식</t>
-        </is>
-      </c>
-      <c r="G104" s="2" t="inlineStr">
-        <is>
-          <t>032500</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="inlineStr">
-        <is>
-          <t>일진홀딩스</t>
-        </is>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>7260</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>104.69</v>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>61.6</v>
-      </c>
-      <c r="E105" s="2" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="F105" s="2" t="inlineStr">
-        <is>
-          <t>주식</t>
-        </is>
-      </c>
-      <c r="G105" s="2" t="inlineStr">
-        <is>
-          <t>015860</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="inlineStr">
-        <is>
-          <t>POSCO홀딩스</t>
-        </is>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>351000</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>104.76</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="E106" s="2" t="n">
-        <v>44.3</v>
-      </c>
-      <c r="F106" s="2" t="inlineStr">
-        <is>
-          <t>주식</t>
-        </is>
-      </c>
-      <c r="G106" s="2" t="inlineStr">
-        <is>
-          <t>005490</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="inlineStr">
-        <is>
-          <t>교보증권</t>
-        </is>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>10140</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>104.9</v>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="E107" s="2" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F107" s="2" t="inlineStr">
-        <is>
-          <t>주식</t>
-        </is>
-      </c>
-      <c r="G107" s="2" t="inlineStr">
-        <is>
-          <t>030610</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="inlineStr">
-        <is>
-          <t>현대바이오</t>
-        </is>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>5640</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>104.98</v>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="E108" s="2" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="F108" s="2" t="inlineStr">
-        <is>
-          <t>주식</t>
-        </is>
-      </c>
-      <c r="G108" s="2" t="inlineStr">
-        <is>
-          <t>048410</t>
+          <t>298050</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3608,7 +3405,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="46.2" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="13.2" customWidth="1" min="2" max="2"/>
     <col width="13.2" customWidth="1" min="3" max="3"/>
     <col width="8.800000000000001" customWidth="1" min="4" max="4"/>
     <col width="8.800000000000001" customWidth="1" min="5" max="5"/>
@@ -3656,20 +3453,20 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>TIGER 차이나CSI300</t>
+          <t>TIGER KRX2차전지K-뉴딜</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>13115</v>
+        <v>7260</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>99.95</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>76.90000000000001</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>58</v>
+        <v>78.7</v>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
@@ -3678,27 +3475,27 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>192090</t>
+          <t>364960</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>TIGER 차이나전기차SOLACTIVE</t>
+          <t>TIGER 미국S&amp;P500</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>13065</v>
+        <v>25170</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>100.11</v>
+        <v>99.55</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>65.59999999999999</v>
+        <v>60.9</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>52.5</v>
+        <v>49.8</v>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
@@ -3707,27 +3504,27 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>371460</t>
+          <t>360750</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>KODEX 미국달러선물</t>
+          <t>KODEX 미국S&amp;P500TR</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>14925</v>
+        <v>23062</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>100.16</v>
+        <v>99.58</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>78</v>
+        <v>60.8</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>36.3</v>
+        <v>55.3</v>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
@@ -3736,27 +3533,27 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>261240</t>
+          <t>379800</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>TIGER 부동산인프라고배당</t>
+          <t>TIGER 차이나전기차SOLACTIVE</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>13640</v>
+        <v>13025</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>100.23</v>
+        <v>99.66</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>77.2</v>
+        <v>60.3</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>73.8</v>
+        <v>64</v>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
@@ -3765,27 +3562,27 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>329750</t>
+          <t>371460</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>KODEX 반도체</t>
+          <t>KODEX 미국나스닥100TR</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>70705</v>
+        <v>24860</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>100.31</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>78.8</v>
+        <v>58.9</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45.9</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
@@ -3794,27 +3591,27 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>091160</t>
+          <t>379810</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>KODEX 2차전지핵심소재10Fn</t>
+          <t>TIGER 미국나스닥100</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>26485</v>
+        <v>165720</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>101.68</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>82.7</v>
+        <v>58.8</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>56.4</v>
+        <v>58.3</v>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
@@ -3823,27 +3620,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>453950</t>
+          <t>133690</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>TIGER 200 IT</t>
+          <t>KODEX 미국달러선물</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>65910</v>
+        <v>14880</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>102.05</v>
+        <v>99.73</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>86.59999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>41.7</v>
+        <v>40.2</v>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
@@ -3852,27 +3649,27 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>139260</t>
+          <t>261240</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>KODEX 코스닥150선물인버스</t>
+          <t>TIGER 미국S&amp;P500선물(H)</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2930</v>
+        <v>71040</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>102.63</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>50</v>
+        <v>50.8</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>34.6</v>
+        <v>69.8</v>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
@@ -3881,27 +3678,27 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>251340</t>
+          <t>143850</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>KODEX 헬스케어</t>
+          <t>TIGER 부동산인프라고배당</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>13720</v>
+        <v>13610</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>103</v>
+        <v>99.88</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>64.40000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>52.9</v>
+        <v>43.5</v>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
@@ -3910,27 +3707,27 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>091220</t>
+          <t>329750</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>KODEX MSCI Korea TR</t>
+          <t>TIGER 차이나CSI300</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>24895</v>
+        <v>13130</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>103.18</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>93.8</v>
+        <v>71.8</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>54.4</v>
+        <v>55.3</v>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
@@ -3939,27 +3736,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>278540</t>
+          <t>192090</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>KBSTAR 200</t>
+          <t>KODEX 반도체</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>72375</v>
+        <v>72500</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>103.34</v>
+        <v>102.51</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>94.8</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>61.1</v>
+        <v>66</v>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
@@ -3968,27 +3765,27 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>148020</t>
+          <t>091160</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>KODEX MSCI Korea TR</t>
+          <t>KODEX 헬스케어</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>25790</v>
+        <v>13795</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>103.35</v>
+        <v>102.92</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>74.09999999999999</v>
+        <v>49.8</v>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
@@ -3997,27 +3794,27 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>278530</t>
+          <t>091220</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>TIGER 200</t>
+          <t>KODEX 2차전지핵심소재10Fn</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>71815</v>
+        <v>27090</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>103.35</v>
+        <v>103.05</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>94.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>59.1</v>
+        <v>59.9</v>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
@@ -4026,27 +3823,27 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>102110</t>
+          <t>453950</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>KODEX 200</t>
+          <t>KODEX MSCI Korea TR</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>71755</v>
+        <v>25460</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>103.36</v>
+        <v>104.57</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>94.40000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>79.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
@@ -4055,7 +3852,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>069500</t>
+          <t>278540</t>
         </is>
       </c>
     </row>
@@ -4066,16 +3863,16 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>16210</v>
+        <v>16555</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>103.46</v>
+        <v>104.63</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>98.3</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>39.8</v>
+        <v>59.8</v>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
@@ -4091,20 +3888,20 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>TIGER MSCI Korea TR</t>
+          <t>KODEX 200</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>31380</v>
+        <v>73450</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>103.53</v>
+        <v>104.77</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>92.90000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>62.5</v>
+        <v>67.8</v>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
@@ -4113,27 +3910,27 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>310970</t>
+          <t>069500</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>TIGER TOP10</t>
+          <t>TIGER MSCI Korea TR</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>25710</v>
+        <v>32070</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>103.75</v>
+        <v>104.79</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>91.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>60.3</v>
+        <v>59.1</v>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
@@ -4142,27 +3939,27 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>292150</t>
+          <t>310970</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>KODEX 레버리지</t>
+          <t>KODEX MSCI Korea TR</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>66115</v>
+        <v>26400</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>106.81</v>
+        <v>104.81</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>94.3</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>55.2</v>
+        <v>77</v>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
@@ -4171,7 +3968,123 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>122630</t>
+          <t>278530</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>KBSTAR 200</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>74130</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>104.81</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>148020</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>TIGER 200</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>73565</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>104.83</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>102110</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>TIGER 200 IT</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>68500</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>105.21</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>139260</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>TIGER TOP10</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>26330</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>105.25</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>292150</t>
         </is>
       </c>
     </row>
